--- a/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_02_end.xlsx
+++ b/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_02_end.xlsx
@@ -704,7 +704,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Male Tourist"]   The Foodie Guide says the owner is an old man called "The Godly Finball Uncle."
+    <t xml:space="preserve">[name="Male Tourist"]   The Foodie Guide says the owner is an old man called 'The Godly Finball Uncle.'
 </t>
   </si>
   <si>
@@ -724,7 +724,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]   I'm sure it's got nothing to do with that "Resting Triad Face" you've got going on.
+    <t xml:space="preserve">[name="???"]   I'm sure it's got nothing to do with that 'Resting Triad Face' you've got going on.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_02_end.xlsx
+++ b/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_02_end.xlsx
@@ -668,7 +668,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">7:16 PM \ Clear
+    <t xml:space="preserve">7:16 P.M. \ Clear
 </t>
   </si>
   <si>
